--- a/capacidad-instalada_v1_ernc.xlsx
+++ b/capacidad-instalada_v1_ernc.xlsx
@@ -2276,11 +2276,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -2896,11 +2892,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -3032,7 +3024,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -3166,7 +3158,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -3298,11 +3290,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -3432,11 +3420,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -3566,11 +3550,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -3700,11 +3680,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -3834,11 +3810,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -3964,11 +3936,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4100,7 +4068,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -4232,11 +4200,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4366,11 +4330,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4502,7 +4462,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -4636,7 +4596,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -4764,11 +4724,7 @@
         </is>
       </c>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4900,7 +4856,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -5034,7 +4990,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -5166,11 +5122,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5296,11 +5248,7 @@
         </is>
       </c>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5432,7 +5380,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -5564,11 +5512,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5698,11 +5642,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5834,7 +5774,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -5968,7 +5908,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -6100,11 +6040,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -6234,11 +6170,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -6370,7 +6302,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -6504,7 +6436,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -6638,7 +6570,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -6770,11 +6702,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
           <t>No Aplica</t>
@@ -6906,7 +6834,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -7040,7 +6968,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -7174,7 +7102,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -7308,7 +7236,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Pequeños medio de generación o PMG</t>
+          <t>PMG</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">

--- a/capacidad-instalada_v1_ernc.xlsx
+++ b/capacidad-instalada_v1_ernc.xlsx
@@ -3993,18 +3993,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HIDROPALMAR S.A.</t>
+          <t>HIDROELÉCTRICA LOS CORRALES SPA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>76.065.092-7</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HP CORRENTOSO</t>
+          <t>HP CORRALES</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -4014,22 +4010,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>16/06/2020</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -4053,12 +4049,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>3,163</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -4073,12 +4069,12 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>NO APLICA</t>
+          <t>No Aplica</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>SE Copihues</t>
+          <t>ID 1399 - BA S/E SAN ANDRES 220KV B1</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr"/>
@@ -4095,17 +4091,17 @@
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>728393.88</t>
+          <t>371425</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>5480812.59</t>
+          <t>6154694</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>18G</t>
+          <t>19 H</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
@@ -4127,18 +4123,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PACIFIC HYDRO CHILE S.A.</t>
+          <t>HIDROPALMAR S.A.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>96.990.040-8</t>
+          <t>76.065.092-7</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>HP COYA</t>
+          <t>HP CORRENTOSO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -4148,22 +4144,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>16/06/2020</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Machalí</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -4187,12 +4183,12 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>11,9724</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -4200,7 +4196,11 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>S/E CENTRAL COYA 69KV</t>
+          <t>SE Copihues</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr"/>
@@ -4225,17 +4225,17 @@
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>359437,4705</t>
+          <t>728393.88</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>6214070,085</t>
+          <t>5480812.59</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>19H</t>
+          <t>18G</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
@@ -4257,18 +4257,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUMBRES S.A.</t>
+          <t>PACIFIC HYDRO CHILE S.A.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>76.253.866-0</t>
+          <t>96.990.040-8</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>HP CUMBRES</t>
+          <t>HP COYA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4278,22 +4278,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>28/09/2019</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Río Bueno</t>
+          <t>Machalí</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -4301,7 +4301,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -4317,12 +4317,12 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>17,96</t>
+          <t>12</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>17,86</t>
+          <t>11,9724</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>S/E Central Cumbres 23KV B1</t>
+          <t>S/E CENTRAL COYA 69KV</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr"/>
@@ -4355,17 +4355,17 @@
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>736150</t>
+          <t>359437,4705</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>5496726</t>
+          <t>6214070,085</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>18H</t>
+          <t>19H</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
@@ -4387,18 +4387,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HIDROELECTRICA DOS VALLES SPA</t>
+          <t>CUMBRES SPA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>76.495.341-K</t>
+          <t>76.253.866-0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HP DOS VALLES</t>
+          <t>HP CUMBRES</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14/09/2019</t>
+          <t>28/09/2019</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -4418,12 +4418,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región de Los Ríos</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Río Bueno</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -4431,7 +4431,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -4447,12 +4447,12 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>17,96</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>17,86</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -4460,11 +4460,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4472,7 +4468,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>S/E EL PASO 154 KV</t>
+          <t>S/E Central Cumbres 23KV B1</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
@@ -4489,17 +4485,17 @@
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>377490,026</t>
+          <t>736150</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>6137019,988</t>
+          <t>5496726</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>19H</t>
+          <t>18H</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
@@ -4521,18 +4517,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ASOC. DE CANAL. SOCIEDAD DEL CANAL DE MAIPO</t>
+          <t>HIDROELECTRICA DOS VALLES SPA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>76.081.590-K</t>
+          <t>76.495.341-K</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>HP EL RINCON</t>
+          <t>HP DOS VALLES</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -4542,22 +4538,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>13/04/2007</t>
+          <t>14/09/2019</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Región Metropolitana de Santiago</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>La Florida</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -4581,12 +4577,12 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0,289</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0,284665</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -4606,7 +4602,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>ID 1223 BA S/E CENTRAL FLORIDA 2 12KV BP1</t>
+          <t>S/E EL PASO 154 KV</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr"/>
@@ -4623,17 +4619,17 @@
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>356744.76</t>
+          <t>377490,026</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>6286886.30</t>
+          <t>6137019,988</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>19 H</t>
+          <t>19H</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
@@ -4666,7 +4662,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>HP FLORIDA II</t>
+          <t>HP EL RINCON</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -4676,12 +4672,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>01/01/1993</t>
+          <t>13/04/2007</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4699,7 +4695,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -4710,21 +4706,29 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Hidráulica Pasada</t>
+          <t>Mini Hidráulica Pasada</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>19,891</t>
+          <t>0,289</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>19,125</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+          <t>0,284665</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4732,7 +4736,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>ID 742 BA S/E FLORIDA 110KV BP1</t>
+          <t>ID 1223 BA S/E CENTRAL FLORIDA 2 12KV BP1</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr"/>
@@ -4749,12 +4753,12 @@
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>356531.00</t>
+          <t>356744.76</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>6286936.00</t>
+          <t>6286886.30</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
@@ -4792,7 +4796,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>HP FLORIDA III</t>
+          <t>HP FLORIDA II</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -4802,12 +4806,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/01/1993</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4841,24 +4845,16 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>19,891</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>2,4945</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+          <t>19,125</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -4866,7 +4862,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>ID 1223 BA S/E CENTRAL FLORIDA 2 12KV BP1</t>
+          <t>ID 742 BA S/E FLORIDA 110KV BP1</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
@@ -4883,12 +4879,12 @@
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>356755.85</t>
+          <t>356531.00</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>6286901.08</t>
+          <t>6286936.00</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
@@ -4926,7 +4922,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>HP FLORIDA</t>
+          <t>HP FLORIDA III</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -4936,12 +4932,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>01/01/1909</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4975,12 +4971,12 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>5,9868</t>
+          <t>2,4945</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -5000,7 +4996,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>ID 742 BA S/E FLORIDA 110KV BP1</t>
+          <t>ID 1223 BA S/E CENTRAL FLORIDA 2 12KV BP1</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr"/>
@@ -5017,12 +5013,12 @@
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>356418.90</t>
+          <t>356755.85</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>6287038.65</t>
+          <t>6286901.08</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
@@ -5049,18 +5045,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ENERGÍA COYANCO S.A.</t>
+          <t>ASOC. DE CANAL. SOCIEDAD DEL CANAL DE MAIPO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>76.857.590-8</t>
+          <t>76.081.590-K</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>HP GUAYACAN</t>
+          <t>HP FLORIDA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5070,12 +5066,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>30/03/2011</t>
+          <t>01/01/1909</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1909</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -5085,7 +5081,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>San José de Maipo</t>
+          <t>La Florida</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -5104,25 +5100,29 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Mini Hidráulica Pasada</t>
+          <t>Hidráulica Pasada</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>11,8432</t>
+          <t>5,9868</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Tap La Laja 110 kV</t>
+          <t>ID 742 BA S/E FLORIDA 110KV BP1</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr"/>
@@ -5147,17 +5147,17 @@
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>373852</t>
+          <t>356418.90</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>6281068</t>
+          <t>6287038.65</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>19H</t>
+          <t>19 H</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
@@ -5179,18 +5179,18 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ELÉCTRICA PUNTILLA S.A.</t>
+          <t>ENERGÍA COYANCO S.A.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>96.817.230-1</t>
+          <t>76.857.590-8</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>HP ITATA</t>
+          <t>HP GUAYACAN</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5200,22 +5200,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09/09/2016</t>
+          <t>30/03/2011</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Yungay</t>
+          <t>San José de Maipo</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
@@ -5239,15 +5239,19 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>19,43</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr"/>
+          <t>11,8432</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
@@ -5256,7 +5260,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>TAP SECCIONADORA ITATA 66KV</t>
+          <t>Tap La Laja 110 kV</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr"/>
@@ -5273,17 +5277,17 @@
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>750757.35</t>
+          <t>373852</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>5895969.96</t>
+          <t>6281068</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>18H</t>
+          <t>19H</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
@@ -5305,18 +5309,18 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>COLBÚN S.A.</t>
+          <t>ELÉCTRICA PUNTILLA S.A.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>96.505.760-9</t>
+          <t>96.817.230-1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>HP JUNCALITO</t>
+          <t>HP ITATA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -5326,22 +5330,22 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>01/01/1994</t>
+          <t>09/09/2016</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Los Andes</t>
+          <t>Yungay</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -5349,7 +5353,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -5365,24 +5369,16 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>20</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+          <t>19,43</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5390,7 +5386,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>S/E HORNITOS 220KV</t>
+          <t>TAP SECCIONADORA ITATA 66KV</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr"/>
@@ -5407,17 +5403,17 @@
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>381257,96</t>
+          <t>750757.35</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>6358961,998</t>
+          <t>5895969.96</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>19H</t>
+          <t>18H</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
@@ -5439,18 +5435,18 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EMPRESA ELÉCTRICA LICÁN S.A.</t>
+          <t>COLBÚN S.A.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>76.375.780-3</t>
+          <t>96.505.760-9</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>HP LICAN</t>
+          <t>HP JUNCALITO</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -5460,22 +5456,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>04/06/2011</t>
+          <t>01/01/1994</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Río Bueno</t>
+          <t>Los Andes</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
@@ -5483,7 +5479,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
@@ -5499,12 +5495,12 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>17,955</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -5512,7 +5508,11 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>S/E MANTILHUE 110KV</t>
+          <t>S/E HORNITOS 220KV</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -5537,17 +5537,17 @@
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>719814,7704</t>
+          <t>381257,96</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>5500400,727</t>
+          <t>6358961,998</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>18G</t>
+          <t>19H</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
@@ -5569,18 +5569,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA RÍO LIRCAY S.A.</t>
+          <t>EMPRESA ELÉCTRICA LICÁN S.A.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>76.025.973-K</t>
+          <t>76.375.780-3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>HP LIRCAY</t>
+          <t>HP LICAN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -5590,22 +5590,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09/03/2009</t>
+          <t>04/06/2011</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Los Ríos</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>San Clemente</t>
+          <t>Río Bueno</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
@@ -5629,12 +5629,12 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>18,9525</t>
+          <t>17,955</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>S/E CENTRAL LIRCAY 66KV</t>
+          <t>S/E MANTILHUE 110KV</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr"/>
@@ -5667,17 +5667,17 @@
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>294995.81</t>
+          <t>719814,7704</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>6065027.49</t>
+          <t>5500400,727</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>19H</t>
+          <t>18G</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
@@ -5699,18 +5699,18 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA LLEUQUEREO S.A.</t>
+          <t>HIDROELÉCTRICA RÍO LIRCAY S.A.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>76.281.947-3</t>
+          <t>76.025.973-K</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>HP LLAUQUEREO</t>
+          <t>HP LIRCAY</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -5720,22 +5720,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>07/08/2015</t>
+          <t>09/03/2009</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Región del Biobío</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Santa Bárbara</t>
+          <t>San Clemente</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -5743,7 +5743,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
@@ -5759,12 +5759,12 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>1,755</t>
+          <t>18,9525</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -5772,11 +5772,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -5784,7 +5780,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>S/E PEUCHEN 220 KV</t>
+          <t>S/E CENTRAL LIRCAY 66KV</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr"/>
@@ -5801,12 +5797,12 @@
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>277070,9757</t>
+          <t>294995.81</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>5839265,01</t>
+          <t>6065027.49</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
@@ -5833,18 +5829,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EMPRESA ELÉCTRICA PORTEZUELO SPA</t>
+          <t>HIDROELÉCTRICA LLEUQUEREO S.A.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>76.461.861-0</t>
+          <t>76.281.947-3</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>HP LOS HIERROS II</t>
+          <t>HP LLAUQUEREO</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -5854,7 +5850,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>21/09/2015</t>
+          <t>07/08/2015</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5864,12 +5860,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región del Biobío</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Colbún</t>
+          <t>Santa Bárbara</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -5893,12 +5889,12 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1,755</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -5918,7 +5914,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>S/E CENTRAL LOS HIERROS II 110KV</t>
+          <t>S/E PEUCHEN 220 KV</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr"/>
@@ -5935,12 +5931,12 @@
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>312243,9999</t>
+          <t>277070,9757</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>6031826,015</t>
+          <t>5839265,01</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
@@ -5967,18 +5963,18 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ENEL GENERACIÓN CHILE S.A.</t>
+          <t>EMPRESA ELÉCTRICA PORTEZUELO SPA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>91.081.000-6</t>
+          <t>76.461.861-0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>HP LOS MOLLES</t>
+          <t>HP LOS HIERROS II</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -5988,22 +5984,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>01/01/1952</t>
+          <t>21/09/2015</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Monte Patria</t>
+          <t>Colbún</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -6011,7 +6007,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -6027,12 +6023,12 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>17,9514</t>
+          <t>6</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -6040,7 +6036,11 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>S/E LOS MOLLES 66KV B1</t>
+          <t>S/E CENTRAL LOS HIERROS II 110KV</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr"/>
@@ -6065,17 +6065,17 @@
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>348089,2948</t>
+          <t>312243,9999</t>
         </is>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>6597647,26</t>
+          <t>6031826,015</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>19J</t>
+          <t>19H</t>
         </is>
       </c>
       <c r="AN41" t="inlineStr">
@@ -6097,18 +6097,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EMPRESA ELÉCTRICA CARÉN S.A.</t>
+          <t>ENEL GENERACIÓN CHILE S.A.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>76.149.809-6</t>
+          <t>91.081.000-6</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>HP MALALCAHUELLO</t>
+          <t>HP LOS MOLLES</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -6118,22 +6118,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>28/10/2016</t>
+          <t>01/01/1952</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Melipeuco</t>
+          <t>Monte Patria</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -6157,12 +6157,12 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>9,154</t>
+          <t>17,9514</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>SE MELIPEUCO 23KV</t>
+          <t>S/E LOS MOLLES 66KV B1</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -6195,17 +6195,17 @@
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>281324.48</t>
+          <t>348089,2948</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>5693185.18</t>
+          <t>6597647,26</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>19H</t>
+          <t>19J</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
@@ -6227,18 +6227,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA RÍO LIRCAY S.A.</t>
+          <t>EMPRESA ELÉCTRICA CARÉN S.A.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>76.025.973-K</t>
+          <t>76.149.809-6</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>HP MARIPOSAS</t>
+          <t>HP MALALCAHUELLO</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -6248,22 +6248,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>26/03/2011</t>
+          <t>28/10/2016</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>San Clemente</t>
+          <t>Melipeuco</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -6271,7 +6271,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -6287,12 +6287,12 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>6,2855</t>
+          <t>9,154</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -6300,11 +6300,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -6312,7 +6308,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>ID 1174 BA S/E MARIPOSAS 66KV BP1</t>
+          <t>SE MELIPEUCO 23KV</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr"/>
@@ -6329,17 +6325,17 @@
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>294883.00</t>
+          <t>281324.48</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>6058490.0</t>
+          <t>5693185.18</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>19 H</t>
+          <t>19H</t>
         </is>
       </c>
       <c r="AN43" t="inlineStr">
@@ -6361,18 +6357,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HIDROENERSUR S.A.</t>
+          <t>HIDROELÉCTRICA RÍO LIRCAY S.A.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>76.003.174-7</t>
+          <t>76.025.973-K</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>HP MC1</t>
+          <t>HP MARIPOSAS</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -6382,22 +6378,22 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>29/05/2013</t>
+          <t>26/03/2011</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Puerto Octay</t>
+          <t>San Clemente</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -6405,7 +6401,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -6421,12 +6417,12 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>8,9546</t>
+          <t>6,2855</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -6446,7 +6442,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>S/E RIO BONITO</t>
+          <t>ID 1174 BA S/E MARIPOSAS 66KV BP1</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr"/>
@@ -6463,17 +6459,17 @@
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>718639,0313</t>
+          <t>294883.00</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>5467123,052</t>
+          <t>6058490.0</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>18G</t>
+          <t>19 H</t>
         </is>
       </c>
       <c r="AN44" t="inlineStr">
@@ -6506,7 +6502,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>HP MC2</t>
+          <t>HP MC1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -6539,7 +6535,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -6555,12 +6551,12 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>8,9546</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -6629,18 +6625,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HIDROMOCHO S.A.</t>
+          <t>HIDROENERSUR S.A.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>76.376.443-5</t>
+          <t>76.003.174-7</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>HP MOCHO</t>
+          <t>HP MC2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -6650,22 +6646,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>06/01/2021</t>
+          <t>29/05/2013</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Región de Los Ríos</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Río Bueno</t>
+          <t>Puerto Octay</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -6689,12 +6685,12 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>14,9</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>14,77</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -6702,15 +6698,19 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>PMG</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>No Aplica</t>
+          <t>NO APLICA</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>S/E Mocho</t>
+          <t>S/E RIO BONITO</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr"/>
@@ -6727,12 +6727,12 @@
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>732490</t>
+          <t>718639,0313</t>
         </is>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
-          <t>5497370</t>
+          <t>5467123,052</t>
         </is>
       </c>
       <c r="AM46" t="inlineStr">
@@ -6759,18 +6759,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HIDROENERSUR S.A.</t>
+          <t>HIDROMOCHO S.A.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>76.003.174-7</t>
+          <t>76.376.443-5</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>HP NALCAS</t>
+          <t>HP MOCHO</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -6780,22 +6780,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>14/09/2012</t>
+          <t>06/01/2021</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de Los Ríos</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Puerto Octay</t>
+          <t>Río Bueno</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -6803,7 +6803,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -6819,12 +6819,12 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>14,9</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>6,783</t>
+          <t>14,77</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -6832,19 +6832,15 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>PMG</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>NO APLICA</t>
+          <t>No Aplica</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>S/E RIO BONITO</t>
+          <t>S/E Mocho</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr"/>
@@ -6861,12 +6857,12 @@
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>724070,0005</t>
+          <t>732490</t>
         </is>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>5469472,018</t>
+          <t>5497370</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
@@ -6893,18 +6889,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ENEL GENERACIÓN CHILE S.A.</t>
+          <t>HIDROENERSUR S.A.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>91.081.000-6</t>
+          <t>76.003.174-7</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>HP OJOS DE AGUA</t>
+          <t>HP NALCAS</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -6914,22 +6910,22 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>27/06/2008</t>
+          <t>14/09/2012</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>San Clemente</t>
+          <t>Puerto Octay</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -6937,7 +6933,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -6953,12 +6949,12 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>8,9847</t>
+          <t>6,783</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -6978,7 +6974,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>S/E CIPRESES</t>
+          <t>S/E RIO BONITO</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr"/>
@@ -6995,17 +6991,17 @@
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>336635.99</t>
+          <t>724070,0005</t>
         </is>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
-          <t>6038272.21</t>
+          <t>5469472,018</t>
         </is>
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>19H</t>
+          <t>18G</t>
         </is>
       </c>
       <c r="AN48" t="inlineStr">
@@ -7027,18 +7023,18 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA PALACIOS SPA</t>
+          <t>ENEL GENERACIÓN CHILE S.A.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>76.585.842-9</t>
+          <t>91.081.000-6</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>HP PALACIOS</t>
+          <t>HP OJOS DE AGUA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -7048,22 +7044,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>05/11/2019</t>
+          <t>27/06/2008</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>San Clemente</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -7087,12 +7083,12 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>3,044</t>
+          <t>9</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>3,017</t>
+          <t>8,9847</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -7112,7 +7108,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>S/E EL PASO 154 KV</t>
+          <t>S/E CIPRESES</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr"/>
@@ -7129,17 +7125,17 @@
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>377462.04</t>
+          <t>336635.99</t>
         </is>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>6136965.27</t>
+          <t>6038272.21</t>
         </is>
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>19 H</t>
+          <t>19H</t>
         </is>
       </c>
       <c r="AN49" t="inlineStr">
@@ -7161,18 +7157,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HIDROPALMAR S.A.</t>
+          <t>HIDROELÉCTRICA PALACIOS SPA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>76.065.092-7</t>
+          <t>76.585.842-9</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>HP PALMAR</t>
+          <t>HP PALACIOS</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -7182,22 +7178,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>16/06/2020</t>
+          <t>05/11/2019</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -7205,7 +7201,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -7221,12 +7217,12 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>3,044</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>3,017</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -7246,7 +7242,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>SE Copihues</t>
+          <t>S/E EL PASO 154 KV</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr"/>
@@ -7263,17 +7259,17 @@
       <c r="AJ50" t="inlineStr"/>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>726378</t>
+          <t>377462.04</t>
         </is>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
-          <t>5481176</t>
+          <t>6136965.27</t>
         </is>
       </c>
       <c r="AM50" t="inlineStr">
         <is>
-          <t>18 G</t>
+          <t>19 H</t>
         </is>
       </c>
       <c r="AN50" t="inlineStr">
